--- a/Analisis/validaciones/validacion_reportes.xlsx
+++ b/Analisis/validaciones/validacion_reportes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/validaciones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="13_ncr:1_{C3BC911C-CB85-46EA-967D-51D15C7D4CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84D96C53-A389-42F6-A3C7-4388E00B6A98}"/>
+  <xr:revisionPtr revIDLastSave="163" documentId="13_ncr:1_{C3BC911C-CB85-46EA-967D-51D15C7D4CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7176BCD-68CB-4DE5-87C4-7F14F4D4788A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13590" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="diccionario_validador" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
   <si>
     <t>num_validador</t>
   </si>
@@ -169,6 +169,30 @@
   </si>
   <si>
     <t>Corresponde a validar el dato que solicita RDC01 para el campo Deuda Acelerada</t>
+  </si>
+  <si>
+    <t>Funcion/Procedimiento</t>
+  </si>
+  <si>
+    <t>proceso.val_num_1</t>
+  </si>
+  <si>
+    <t>proceso.val_num_2</t>
+  </si>
+  <si>
+    <t>proceso.val_num_3</t>
+  </si>
+  <si>
+    <t>proceso.val_num_9</t>
+  </si>
+  <si>
+    <t>proceso.val_num_4</t>
+  </si>
+  <si>
+    <t>proceso.val_codigo_tabla</t>
+  </si>
+  <si>
+    <t>proceso.val_num_10</t>
   </si>
 </sst>
 </file>
@@ -234,6 +258,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -499,23 +527,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="151.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="76.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="151.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,11 +557,14 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -545,11 +577,14 @@
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -562,11 +597,14 @@
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -579,11 +617,14 @@
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -596,11 +637,14 @@
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -613,11 +657,14 @@
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -630,11 +677,14 @@
       <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -647,11 +697,14 @@
       <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -664,11 +717,14 @@
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -681,11 +737,14 @@
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -698,11 +757,14 @@
       <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -715,11 +777,11 @@
       <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -732,11 +794,11 @@
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
@@ -749,7 +811,7 @@
       <c r="D14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>47</v>
       </c>
     </row>

--- a/Analisis/validaciones/validacion_reportes.xlsx
+++ b/Analisis/validaciones/validacion_reportes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/validaciones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="163" documentId="13_ncr:1_{C3BC911C-CB85-46EA-967D-51D15C7D4CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7176BCD-68CB-4DE5-87C4-7F14F4D4788A}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="13_ncr:1_{C3BC911C-CB85-46EA-967D-51D15C7D4CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{598B92BE-EC3A-4F37-A2D0-6FF2E4D670BF}"/>
   <bookViews>
     <workbookView xWindow="13590" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
   <si>
     <t>num_validador</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>proceso.val_num_10</t>
+  </si>
+  <si>
+    <t>proceso.val_num_11</t>
+  </si>
+  <si>
+    <t>proceso.val_en_dominio</t>
   </si>
 </sst>
 </file>
@@ -530,7 +536,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -777,6 +783,9 @@
       <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E12" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="F12" s="3" t="s">
         <v>45</v>
       </c>
@@ -794,6 +803,9 @@
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="E13" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="F13" s="3" t="s">
         <v>46</v>
       </c>
@@ -810,6 +822,9 @@
       </c>
       <c r="D14" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>47</v>

--- a/Analisis/validaciones/validacion_reportes.xlsx
+++ b/Analisis/validaciones/validacion_reportes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/validaciones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="13_ncr:1_{C3BC911C-CB85-46EA-967D-51D15C7D4CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{598B92BE-EC3A-4F37-A2D0-6FF2E4D670BF}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="13_ncr:1_{C3BC911C-CB85-46EA-967D-51D15C7D4CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{469F7411-3DD0-48C6-9B06-D8721EBFA650}"/>
   <bookViews>
     <workbookView xWindow="13590" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
   <si>
     <t>num_validador</t>
   </si>
@@ -199,6 +199,39 @@
   </si>
   <si>
     <t>proceso.val_en_dominio</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Tipo de registro no corresponde</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Tipo de flujo informado no corresponde</t>
+  </si>
+  <si>
+    <t>RDC20</t>
+  </si>
+  <si>
+    <t>Corresponde a validar si los tipos de registros corresponden a lo solicitado</t>
+  </si>
+  <si>
+    <t>Corresponde a validar el dato que solicita RDC20 para el campo tipo de flujo</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>proceso.val_num_16</t>
+  </si>
+  <si>
+    <t>Filler debe ser completado con espacios y tener un largo especifico</t>
+  </si>
+  <si>
+    <t>Corresponde a validar el filler si esta compuesto por espacios y tiene un largo especifico</t>
   </si>
 </sst>
 </file>
@@ -533,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -830,6 +863,66 @@
         <v>47</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analisis/validaciones/validacion_reportes.xlsx
+++ b/Analisis/validaciones/validacion_reportes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/validaciones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="184" documentId="13_ncr:1_{C3BC911C-CB85-46EA-967D-51D15C7D4CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{469F7411-3DD0-48C6-9B06-D8721EBFA650}"/>
+  <xr:revisionPtr revIDLastSave="200" documentId="13_ncr:1_{C3BC911C-CB85-46EA-967D-51D15C7D4CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C616E47-D4DD-441C-9F8B-08C787000657}"/>
   <bookViews>
-    <workbookView xWindow="13590" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="diccionario_validador" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="94">
   <si>
     <t>num_validador</t>
   </si>
@@ -232,6 +232,81 @@
   </si>
   <si>
     <t>Corresponde a validar el filler si esta compuesto por espacios y tiene un largo especifico</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Si se informa tipo deudor 1, el sujeto tiene mora y el monto actual = suma( monto al dia + tramos de mora de 1 a 9) entonces carga financiera tiene que estar en cero.</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Si se informa dato en el campo mora_actual entonces la suma de los campos de mora del 1 al 9 tiene que ser mayor a cero.</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Si la suma de los campos de mora 1 al 9 es mayor a cero, entonces el campo mora actual debe ser mayor a cero.</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Si el campo deuda acelerada es igual a 1, entonces campo monto al dia tiene que ser igual a cero y la suma de los campos en mora del 1 al 9 debe ser mayor a cero.</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Si el campo deuda acelerada es igual a 1, entonces el campo mora actual debe ser mayor a cero.</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Si el campo deuda acelerada es igual a 1, entonces el campo de carga financiera debe ser igual a cero</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Para tipo de deudor 1, campo operacion + tipo de obligacion, deben ser unicos</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Para tipo de deudor 2, campo operacion + campo rut + tipo de obligacion, deben ser unicos</t>
+  </si>
+  <si>
+    <t>proceso.val_reporte_rdc01</t>
+  </si>
+  <si>
+    <t>Si el credito esta completamente moroso , la carga financiera debe ser cero</t>
+  </si>
+  <si>
+    <t>Relacion entre campos, si se informa dato en campo mora actual, debe haber monto de mora en almenos alguno tramo de mora</t>
+  </si>
+  <si>
+    <t>Relacion entre campos, si existe monto en mora en algunos de los tramos 1 al 9, entonces el campo mora_actual debe ser distinto de cero</t>
+  </si>
+  <si>
+    <t>Si el credito esta acelerado, significa que no hay monto al dia ya que se hace se acelera toda la deuda, por lo tanto, esta todo moroso</t>
+  </si>
+  <si>
+    <t>Credito acelerado implica que todo esta moroso, por lo tanto, debe informar dato en campo mora_actual</t>
+  </si>
+  <si>
+    <t>Como esta acelerado y todo esta moroso, campo carga financiera debe ser cero ya que excluye la mora.</t>
+  </si>
+  <si>
+    <t>Significa que no deben repetirse los campos numero de operacion y tipo de obligacion para deudas directas</t>
+  </si>
+  <si>
+    <t>Significa que no deben repetirse los campos rut mas numero de operacion mas tipo de obligacion para deudas indirectas</t>
   </si>
 </sst>
 </file>
@@ -566,24 +641,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="151.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="3"/>
+    <col min="5" max="5" width="29.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="151.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,7 +678,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -623,7 +698,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -643,7 +718,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -663,7 +738,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -683,7 +758,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -703,7 +778,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -723,7 +798,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -743,7 +818,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -763,7 +838,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -783,7 +858,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -803,7 +878,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -823,7 +898,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -843,7 +918,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
@@ -863,7 +938,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>58</v>
       </c>
@@ -883,7 +958,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>60</v>
       </c>
@@ -903,7 +978,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>65</v>
       </c>
@@ -921,6 +996,166 @@
       </c>
       <c r="F17" s="3" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Analisis/validaciones/validacion_reportes.xlsx
+++ b/Analisis/validaciones/validacion_reportes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/validaciones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="200" documentId="13_ncr:1_{C3BC911C-CB85-46EA-967D-51D15C7D4CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C616E47-D4DD-441C-9F8B-08C787000657}"/>
+  <xr:revisionPtr revIDLastSave="262" documentId="13_ncr:1_{C3BC911C-CB85-46EA-967D-51D15C7D4CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89C6271F-C91C-46BF-AB18-B34133A99CEC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="diccionario_validador" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="98">
   <si>
     <t>num_validador</t>
   </si>
@@ -307,6 +307,18 @@
   </si>
   <si>
     <t>Significa que no deben repetirse los campos rut mas numero de operacion mas tipo de obligacion para deudas indirectas</t>
+  </si>
+  <si>
+    <t>Usado en RDC01</t>
+  </si>
+  <si>
+    <t>Usado en RDC20</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -352,17 +364,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -641,24 +697,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="68.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="151.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="3"/>
+    <col min="5" max="5" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="151.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,11 +731,17 @@
       <c r="E1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -694,11 +757,17 @@
       <c r="E2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -714,11 +783,17 @@
       <c r="E3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -734,11 +809,17 @@
       <c r="E4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -754,11 +835,17 @@
       <c r="E5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -774,11 +861,17 @@
       <c r="E6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -794,11 +887,17 @@
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -814,11 +913,17 @@
       <c r="E8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -834,11 +939,17 @@
       <c r="E9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -854,11 +965,17 @@
       <c r="E10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -874,11 +991,17 @@
       <c r="E11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -894,11 +1017,17 @@
       <c r="E12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -914,11 +1043,17 @@
       <c r="E13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
@@ -934,11 +1069,17 @@
       <c r="E14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>58</v>
       </c>
@@ -954,11 +1095,17 @@
       <c r="E15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>60</v>
       </c>
@@ -974,11 +1121,17 @@
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>65</v>
       </c>
@@ -994,11 +1147,17 @@
       <c r="E17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>69</v>
       </c>
@@ -1014,11 +1173,17 @@
       <c r="E18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>71</v>
       </c>
@@ -1034,11 +1199,17 @@
       <c r="E19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>73</v>
       </c>
@@ -1054,11 +1225,17 @@
       <c r="E20" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>75</v>
       </c>
@@ -1074,11 +1251,17 @@
       <c r="E21" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>77</v>
       </c>
@@ -1094,11 +1277,17 @@
       <c r="E22" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>79</v>
       </c>
@@ -1114,11 +1303,17 @@
       <c r="E23" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>81</v>
       </c>
@@ -1134,11 +1329,17 @@
       <c r="E24" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>83</v>
       </c>
@@ -1154,11 +1355,26 @@
       <c r="E25" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>93</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F1:G1048576">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Si"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Analisis/validaciones/validacion_reportes.xlsx
+++ b/Analisis/validaciones/validacion_reportes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/validaciones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="943" documentId="13_ncr:1_{C3BC911C-CB85-46EA-967D-51D15C7D4CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA91A03E-E2A0-4E11-A305-F62157FFAE2C}"/>
+  <xr:revisionPtr revIDLastSave="1266" documentId="13_ncr:1_{C3BC911C-CB85-46EA-967D-51D15C7D4CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62C69727-3D56-49EB-AC59-3E8FC1D69109}"/>
   <bookViews>
-    <workbookView xWindow="-15210" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15210" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="diccionario_validador" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,12 @@
     <sheet name="QA RDC20 Salida mala" sheetId="3" r:id="rId3"/>
     <sheet name="QA RDC20 Salida mala (2)" sheetId="4" r:id="rId4"/>
     <sheet name="QA RDC20 Salida mala (3)" sheetId="7" r:id="rId5"/>
+    <sheet name="QA RDC01 Salida buena" sheetId="8" r:id="rId6"/>
+    <sheet name="QA RDC01 Salida mala" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">diccionario_validador!$A$2:$H$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">diccionario_validador!$A$1:$H$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'QA RDC01 Salida mala'!$A$19:$E$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'QA RDC20 Salida mala'!$A$32:$E$72</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="263">
   <si>
     <t>num_validador</t>
   </si>
@@ -254,9 +257,6 @@
   </si>
   <si>
     <t>17</t>
-  </si>
-  <si>
-    <t>Si se informa tipo deudor 1, el sujeto tiene mora y el monto actual = suma( monto al dia + tramos de mora de 1 a 9) entonces carga financiera tiene que estar en cero.</t>
   </si>
   <si>
     <t>18</t>
@@ -706,12 +706,189 @@
   <si>
     <t>No se puede validar por que es un tipo de registro que no corresponde</t>
   </si>
+  <si>
+    <t>linea</t>
+  </si>
+  <si>
+    <t>rut</t>
+  </si>
+  <si>
+    <t>tipo_persona</t>
+  </si>
+  <si>
+    <t>operacion_titulo</t>
+  </si>
+  <si>
+    <t>tipo_deudor</t>
+  </si>
+  <si>
+    <t>fecha_otorgamiento</t>
+  </si>
+  <si>
+    <t>carga_financiera</t>
+  </si>
+  <si>
+    <t>fecha_extincion</t>
+  </si>
+  <si>
+    <t>valor_gtia_inmobiliaria</t>
+  </si>
+  <si>
+    <t>valor_gtia_mobiliaria</t>
+  </si>
+  <si>
+    <t>valor_gtia_financiera</t>
+  </si>
+  <si>
+    <t>valor_gtia_personal</t>
+  </si>
+  <si>
+    <t>monto_original</t>
+  </si>
+  <si>
+    <t>monto_actual</t>
+  </si>
+  <si>
+    <t>monto_al_dia</t>
+  </si>
+  <si>
+    <t>monto_mora_1_tramo</t>
+  </si>
+  <si>
+    <t>monto_mora_2_tramo</t>
+  </si>
+  <si>
+    <t>monto_mora_3_tramo</t>
+  </si>
+  <si>
+    <t>monto_mora_4_tramo</t>
+  </si>
+  <si>
+    <t>monto_mora_5_tramo</t>
+  </si>
+  <si>
+    <t>monto_mora_6_tramo</t>
+  </si>
+  <si>
+    <t>monto_mora_7_tramo</t>
+  </si>
+  <si>
+    <t>monto_mora_8_tramo</t>
+  </si>
+  <si>
+    <t>monto_mora_9_tramo</t>
+  </si>
+  <si>
+    <t>mora_actual</t>
+  </si>
+  <si>
+    <t>deuda_renegociada</t>
+  </si>
+  <si>
+    <t>deuda_acelerada</t>
+  </si>
+  <si>
+    <t>20251112</t>
+  </si>
+  <si>
+    <t>20251212</t>
+  </si>
+  <si>
+    <t>000000000000000</t>
+  </si>
+  <si>
+    <t>000000000001000</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>0028391781</t>
+  </si>
+  <si>
+    <t>0060761906</t>
+  </si>
+  <si>
+    <t>003329607k</t>
+  </si>
+  <si>
+    <t>0071579719</t>
+  </si>
+  <si>
+    <t>0047440149</t>
+  </si>
+  <si>
+    <t>0029788065</t>
+  </si>
+  <si>
+    <t>0033887965</t>
+  </si>
+  <si>
+    <t>0049231733</t>
+  </si>
+  <si>
+    <t>0027258182</t>
+  </si>
+  <si>
+    <t>0071085198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000000777RDC0120251130                                                                                                                                                                                                                                                                                                           </t>
+  </si>
+  <si>
+    <t>Largo</t>
+  </si>
+  <si>
+    <t>000000000000000000000000000007</t>
+  </si>
+  <si>
+    <t>000000000000000000000000000008</t>
+  </si>
+  <si>
+    <t>000000000000000000000000000009</t>
+  </si>
+  <si>
+    <t>000000000000000000000000000010</t>
+  </si>
+  <si>
+    <t>0127558590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000000775RDC9920251130                                                                                                                                                                                                                                                                                                          </t>
+  </si>
+  <si>
+    <t>0028391782</t>
+  </si>
+  <si>
+    <t>0127558591</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12112025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0              </t>
+  </si>
+  <si>
+    <t>000000000000100</t>
+  </si>
+  <si>
+    <t>Si se informa tipo deudor 1, el sujeto esta 100% moroso y el monto actual = suma(tramos de mora de 1 a 9) entonces carga financiera tiene que estar en cero.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -746,6 +923,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -795,7 +980,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -807,17 +992,45 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1128,12 +1341,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="191.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -1159,10 +1374,10 @@
         <v>48</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>34</v>
@@ -1185,10 +1400,10 @@
         <v>49</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>35</v>
@@ -1211,10 +1426,10 @@
         <v>50</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>36</v>
@@ -1237,10 +1452,10 @@
         <v>51</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>37</v>
@@ -1263,10 +1478,10 @@
         <v>53</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>38</v>
@@ -1289,10 +1504,10 @@
         <v>54</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>39</v>
@@ -1315,10 +1530,10 @@
         <v>54</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>40</v>
@@ -1341,10 +1556,10 @@
         <v>54</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>41</v>
@@ -1367,10 +1582,10 @@
         <v>54</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>42</v>
@@ -1393,10 +1608,10 @@
         <v>52</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>43</v>
@@ -1419,10 +1634,10 @@
         <v>55</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>44</v>
@@ -1445,10 +1660,10 @@
         <v>56</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>45</v>
@@ -1471,10 +1686,10 @@
         <v>57</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>46</v>
@@ -1497,10 +1712,10 @@
         <v>57</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>47</v>
@@ -1523,10 +1738,10 @@
         <v>57</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>63</v>
@@ -1549,10 +1764,10 @@
         <v>54</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>64</v>
@@ -1575,10 +1790,10 @@
         <v>66</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>68</v>
@@ -1589,7 +1804,7 @@
         <v>69</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>70</v>
+        <v>262</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>14</v>
@@ -1598,24 +1813,24 @@
         <v>16</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
@@ -1624,24 +1839,24 @@
         <v>16</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F19" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="H19" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>14</v>
@@ -1650,24 +1865,24 @@
         <v>16</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="H20" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>14</v>
@@ -1676,24 +1891,24 @@
         <v>16</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="H21" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>14</v>
@@ -1702,24 +1917,24 @@
         <v>16</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F22" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="H22" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>14</v>
@@ -1728,24 +1943,24 @@
         <v>16</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F23" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="H23" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>14</v>
@@ -1754,24 +1969,24 @@
         <v>16</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="H24" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>14</v>
@@ -1780,24 +1995,24 @@
         <v>16</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F25" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="H25" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>14</v>
@@ -1806,24 +2021,24 @@
         <v>62</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>14</v>
@@ -1832,24 +2047,24 @@
         <v>62</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>14</v>
@@ -1858,24 +2073,24 @@
         <v>62</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>14</v>
@@ -1884,24 +2099,24 @@
         <v>62</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>14</v>
@@ -1910,24 +2125,24 @@
         <v>62</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>14</v>
@@ -1936,24 +2151,24 @@
         <v>62</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>14</v>
@@ -1962,24 +2177,24 @@
         <v>62</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>14</v>
@@ -1988,24 +2203,24 @@
         <v>62</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>14</v>
@@ -2014,24 +2229,24 @@
         <v>62</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>14</v>
@@ -2040,24 +2255,24 @@
         <v>62</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>14</v>
@@ -2066,24 +2281,24 @@
         <v>62</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>14</v>
@@ -2092,24 +2307,24 @@
         <v>62</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>14</v>
@@ -2118,24 +2333,24 @@
         <v>62</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>14</v>
@@ -2144,24 +2359,24 @@
         <v>62</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>14</v>
@@ -2170,24 +2385,24 @@
         <v>62</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>14</v>
@@ -2196,24 +2411,24 @@
         <v>62</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:G1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2226,9 +2441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F031FF-6B18-4ADB-9E33-91E891167694}">
   <dimension ref="A1:AI167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2243,42 +2456,42 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="J2" s="5" t="str">
         <f>B2&amp;C2&amp;D2&amp;E2&amp;F2</f>
@@ -2287,22 +2500,22 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>158</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J3" s="5" t="str">
         <f t="shared" ref="J3:J13" si="0">B3&amp;C3&amp;D3&amp;E3&amp;F3</f>
@@ -2311,22 +2524,22 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="J4" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2335,22 +2548,22 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="J5" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2359,22 +2572,22 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J6" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2383,22 +2596,22 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="J7" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2407,22 +2620,22 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J8" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2431,22 +2644,22 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="J9" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2455,22 +2668,22 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="J10" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2479,22 +2692,22 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="J11" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2515,28 +2728,28 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>170</v>
-      </c>
       <c r="H14" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -2567,31 +2780,31 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="G15" s="6" t="s">
+      <c r="H15" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="I15" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="J15" s="5" t="str">
         <f>B15&amp;C15&amp;D15&amp;E15&amp;F15&amp;G15&amp;H15&amp;I15</f>
@@ -2625,31 +2838,31 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E16" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="J16" s="5" t="str">
         <f>B16&amp;C16&amp;D16&amp;E16&amp;F16&amp;G16&amp;H16&amp;I16</f>
@@ -2692,52 +2905,52 @@
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>148</v>
-      </c>
       <c r="H18" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5" t="str">
@@ -2772,28 +2985,28 @@
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5" t="str">
@@ -2856,25 +3069,25 @@
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>148</v>
-      </c>
       <c r="H22" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I22" s="5"/>
       <c r="K22" s="5"/>
@@ -2905,28 +3118,28 @@
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5" t="str">
@@ -2961,28 +3174,28 @@
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5" t="str">
@@ -7034,7 +7247,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="179" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" style="5" customWidth="1"/>
@@ -7045,58 +7258,58 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>188</v>
+      <c r="A3" s="9" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="H4" s="9">
+      <c r="H4">
         <f>LEN(J4)</f>
         <v>81</v>
       </c>
       <c r="I4" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J4" t="s">
         <v>186</v>
       </c>
-      <c r="J4" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>158</v>
+        <v>151</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J5" s="5" t="str">
         <f>B5&amp;C5&amp;D5&amp;E5&amp;F5</f>
@@ -7104,23 +7317,23 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="F6" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="J6" s="5" t="str">
         <f t="shared" ref="J6:J16" si="0">B6&amp;C6&amp;D6&amp;E6&amp;F6</f>
@@ -7128,23 +7341,23 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>197</v>
+      <c r="F7" s="10" t="s">
+        <v>196</v>
       </c>
       <c r="J7" s="5" t="str">
         <f t="shared" si="0"/>
@@ -7152,23 +7365,23 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J8" s="5" t="str">
         <f t="shared" si="0"/>
@@ -7176,23 +7389,23 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>154</v>
       </c>
       <c r="J9" s="5" t="str">
         <f t="shared" si="0"/>
@@ -7200,23 +7413,23 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>158</v>
+        <v>161</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J10" s="5" t="str">
         <f t="shared" si="0"/>
@@ -7224,23 +7437,23 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="F11" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>154</v>
       </c>
       <c r="J11" s="5" t="str">
         <f t="shared" si="0"/>
@@ -7248,23 +7461,23 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>158</v>
+        <v>163</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J12" s="5" t="str">
         <f t="shared" si="0"/>
@@ -7272,23 +7485,23 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>196</v>
-      </c>
       <c r="F13" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J13" s="5" t="str">
         <f t="shared" si="0"/>
@@ -7296,23 +7509,23 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>158</v>
+      <c r="E14" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J14" s="5" t="str">
         <f t="shared" si="0"/>
@@ -7333,28 +7546,28 @@
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>170</v>
-      </c>
       <c r="H17" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -7384,32 +7597,32 @@
       <c r="AI17" s="5"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <v>12</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>193</v>
+        <v>170</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>192</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>199</v>
+        <v>172</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>198</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J18" s="5" t="str">
         <f>B18&amp;C18&amp;D18&amp;E18&amp;F18&amp;G18&amp;H18&amp;I18</f>
@@ -7423,7 +7636,6 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
-      <c r="S18" s="9"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
@@ -7442,32 +7654,32 @@
       <c r="AI18" s="5"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <v>13</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>181</v>
+        <v>156</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>200</v>
+        <v>171</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>199</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>194</v>
+        <v>173</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>193</v>
       </c>
       <c r="J19" s="5" t="str">
         <f>B19&amp;C19&amp;D19&amp;E19&amp;F19&amp;G19&amp;H19&amp;I19</f>
@@ -7481,7 +7693,6 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
-      <c r="S19" s="9"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
@@ -7510,52 +7721,52 @@
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="H21" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>14</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
-        <v>14</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>180</v>
-      </c>
       <c r="D22" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>193</v>
+        <v>176</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>192</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5" t="str">
@@ -7589,29 +7800,29 @@
       <c r="AI22" s="5"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
+      <c r="A23" s="9">
         <v>15</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>181</v>
-      </c>
       <c r="E23" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>195</v>
+        <v>171</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>194</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5" t="str">
@@ -7674,25 +7885,25 @@
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>148</v>
-      </c>
       <c r="H25" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I25" s="5"/>
       <c r="K25" s="5"/>
@@ -7722,29 +7933,29 @@
       <c r="AI25" s="5"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
+      <c r="A26" s="9">
         <v>16</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5" t="str">
@@ -7778,29 +7989,29 @@
       <c r="AI26" s="5"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
+      <c r="A27" s="9">
         <v>17</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>181</v>
-      </c>
       <c r="E27" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>195</v>
+        <v>171</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>194</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5" t="str">
@@ -7862,29 +8073,29 @@
       <c r="AI28" s="5"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
+      <c r="A29" s="9">
         <v>18</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>181</v>
-      </c>
       <c r="E29" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="G29" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29" s="11" t="s">
         <v>27</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5" t="str">
@@ -7981,13 +8192,13 @@
         <v>1</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>190</v>
-      </c>
       <c r="E32" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I32" s="5"/>
       <c r="K32" s="5"/>
@@ -8027,10 +8238,10 @@
         <v>4</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I33" s="5"/>
       <c r="K33" s="5"/>
@@ -8070,10 +8281,10 @@
         <v>4</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I34" s="5"/>
       <c r="K34" s="5"/>
@@ -8113,10 +8324,10 @@
         <v>4</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I35" s="5"/>
       <c r="K35" s="5"/>
@@ -8156,10 +8367,10 @@
         <v>12</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I36" s="5"/>
       <c r="K36" s="5"/>
@@ -8199,10 +8410,10 @@
         <v>32</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I37" s="5"/>
       <c r="K37" s="5"/>
@@ -8242,10 +8453,10 @@
         <v>32</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I38" s="5"/>
       <c r="K38" s="5"/>
@@ -8285,10 +8496,10 @@
         <v>60</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I39" s="5"/>
       <c r="K39" s="5"/>
@@ -8328,10 +8539,10 @@
         <v>69</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I40" s="5"/>
       <c r="K40" s="5"/>
@@ -8368,10 +8579,10 @@
         <v>11</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I41" s="5"/>
       <c r="K41" s="5"/>
@@ -8411,10 +8622,10 @@
         <v>69</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I42" s="5"/>
       <c r="K42" s="5"/>
@@ -8454,10 +8665,10 @@
         <v>32</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I43" s="5"/>
       <c r="K43" s="5"/>
@@ -8497,10 +8708,10 @@
         <v>60</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I44" s="5"/>
       <c r="K44" s="5"/>
@@ -8540,10 +8751,10 @@
         <v>24</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I45" s="5"/>
       <c r="K45" s="5"/>
@@ -8583,10 +8794,10 @@
         <v>4</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I46" s="5"/>
       <c r="K46" s="5"/>
@@ -8626,10 +8837,10 @@
         <v>28</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I47" s="5"/>
       <c r="K47" s="5"/>
@@ -8669,10 +8880,10 @@
         <v>58</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I48" s="5"/>
       <c r="K48" s="5"/>
@@ -8712,10 +8923,10 @@
         <v>32</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I49" s="5"/>
       <c r="K49" s="5"/>
@@ -8755,10 +8966,10 @@
         <v>28</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I50" s="5"/>
       <c r="K50" s="5"/>
@@ -8798,10 +9009,10 @@
         <v>24</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I51" s="5"/>
       <c r="K51" s="5"/>
@@ -8838,13 +9049,13 @@
         <v>59</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I52" s="5"/>
       <c r="K52" s="5"/>
@@ -8881,10 +9092,10 @@
         <v>61</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I53" s="5"/>
       <c r="K53" s="5"/>
@@ -8924,10 +9135,10 @@
         <v>4</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I54" s="5"/>
       <c r="K54" s="5"/>
@@ -8967,10 +9178,10 @@
         <v>32</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I55" s="5"/>
       <c r="K55" s="5"/>
@@ -9010,10 +9221,10 @@
         <v>12</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I56" s="5"/>
       <c r="K56" s="5"/>
@@ -9044,19 +9255,19 @@
     </row>
     <row r="57" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I57" s="5"/>
       <c r="K57" s="5"/>
@@ -9087,19 +9298,19 @@
     </row>
     <row r="58" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I58" s="5"/>
       <c r="K58" s="5"/>
@@ -9130,19 +9341,19 @@
     </row>
     <row r="59" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I59" s="5"/>
       <c r="K59" s="5"/>
@@ -9173,19 +9384,19 @@
     </row>
     <row r="60" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I60" s="5"/>
       <c r="K60" s="5"/>
@@ -9216,19 +9427,19 @@
     </row>
     <row r="61" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I61" s="5"/>
       <c r="K61" s="5"/>
@@ -9259,19 +9470,19 @@
     </row>
     <row r="62" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I62" s="5"/>
       <c r="K62" s="5"/>
@@ -9302,19 +9513,19 @@
     </row>
     <row r="63" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I63" s="5"/>
       <c r="K63" s="5"/>
@@ -9345,19 +9556,19 @@
     </row>
     <row r="64" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I64" s="5"/>
       <c r="K64" s="5"/>
@@ -9388,19 +9599,19 @@
     </row>
     <row r="65" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I65" s="5"/>
       <c r="K65" s="5"/>
@@ -9431,19 +9642,19 @@
     </row>
     <row r="66" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I66" s="5"/>
       <c r="K66" s="5"/>
@@ -9474,13 +9685,13 @@
     </row>
     <row r="67" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="D67" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I67" s="5"/>
       <c r="K67" s="5"/>
@@ -9511,13 +9722,13 @@
     </row>
     <row r="68" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I68" s="5"/>
       <c r="K68" s="5"/>
@@ -9548,13 +9759,13 @@
     </row>
     <row r="69" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I69" s="5"/>
       <c r="K69" s="5"/>
@@ -9585,13 +9796,13 @@
     </row>
     <row r="70" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I70" s="5"/>
       <c r="K70" s="5"/>
@@ -9622,13 +9833,13 @@
     </row>
     <row r="71" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I71" s="5"/>
       <c r="K71" s="5"/>
@@ -9659,13 +9870,13 @@
     </row>
     <row r="72" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I72" s="5"/>
       <c r="K72" s="5"/>
@@ -12817,7 +13028,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="179" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" style="5" customWidth="1"/>
@@ -12828,58 +13039,58 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>188</v>
+      <c r="A3" s="9" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="H4" s="9">
+      <c r="H4">
         <f>LEN(J4)</f>
         <v>82</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="J5" s="5" t="str">
         <f>B5&amp;C5&amp;D5&amp;E5&amp;F5</f>
@@ -12887,23 +13098,23 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>158</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J6" s="5" t="str">
         <f t="shared" ref="J6:J16" si="0">B6&amp;C6&amp;D6&amp;E6&amp;F6</f>
@@ -12911,23 +13122,23 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="J7" s="5" t="str">
         <f t="shared" si="0"/>
@@ -12935,23 +13146,23 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="J8" s="5" t="str">
         <f t="shared" si="0"/>
@@ -12959,23 +13170,23 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J9" s="5" t="str">
         <f t="shared" si="0"/>
@@ -12983,23 +13194,23 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="J10" s="5" t="str">
         <f t="shared" si="0"/>
@@ -13007,23 +13218,23 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J11" s="5" t="str">
         <f t="shared" si="0"/>
@@ -13031,23 +13242,23 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="J12" s="5" t="str">
         <f t="shared" si="0"/>
@@ -13055,23 +13266,23 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="J13" s="5" t="str">
         <f t="shared" si="0"/>
@@ -13079,23 +13290,23 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="J14" s="5" t="str">
         <f t="shared" si="0"/>
@@ -13116,28 +13327,28 @@
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>170</v>
-      </c>
       <c r="H17" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -13167,16 +13378,16 @@
       <c r="AI17" s="5"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <v>12</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="11"/>
+      <c r="E18" s="10"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="11"/>
+      <c r="H18" s="10"/>
       <c r="I18" s="6"/>
       <c r="J18" s="5" t="str">
         <f>B18&amp;C18&amp;D18&amp;E18&amp;F18&amp;G18&amp;H18&amp;I18</f>
@@ -13190,7 +13401,6 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
-      <c r="S18" s="9"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
@@ -13209,17 +13419,17 @@
       <c r="AI18" s="5"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <v>13</v>
       </c>
       <c r="B19" s="6"/>
-      <c r="C19" s="11"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="11"/>
+      <c r="I19" s="10"/>
       <c r="J19" s="5" t="str">
         <f>B19&amp;C19&amp;D19&amp;E19&amp;F19&amp;G19&amp;H19&amp;I19</f>
         <v/>
@@ -13232,7 +13442,6 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
-      <c r="S19" s="9"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
@@ -13261,37 +13470,37 @@
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>148</v>
-      </c>
       <c r="H21" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
+      <c r="A22" s="9">
         <v>14</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="11"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="5"/>
@@ -13326,15 +13535,15 @@
       <c r="AI22" s="5"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
+      <c r="A23" s="9">
         <v>15</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="11"/>
+      <c r="D23" s="10"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="11"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="7"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5" t="str">
@@ -13397,25 +13606,25 @@
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>148</v>
-      </c>
       <c r="H25" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I25" s="5"/>
       <c r="K25" s="5"/>
@@ -13445,7 +13654,7 @@
       <c r="AI25" s="5"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
+      <c r="A26" s="9">
         <v>16</v>
       </c>
       <c r="B26" s="8"/>
@@ -13484,15 +13693,15 @@
       <c r="AI26" s="5"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
+      <c r="A27" s="9">
         <v>17</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="11"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="11"/>
+      <c r="G27" s="10"/>
       <c r="H27" s="8"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -13551,15 +13760,15 @@
       <c r="AI28" s="5"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
+      <c r="A29" s="9">
         <v>18</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="11"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="11"/>
+      <c r="G29" s="10"/>
       <c r="H29" s="8"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5" t="str">
@@ -13656,13 +13865,13 @@
         <v>1</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>190</v>
-      </c>
       <c r="E32" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I32" s="5"/>
       <c r="K32" s="5"/>
@@ -13702,7 +13911,7 @@
         <v>4</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I33" s="5"/>
       <c r="K33" s="5"/>
@@ -13742,7 +13951,7 @@
         <v>4</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I34" s="5"/>
       <c r="K34" s="5"/>
@@ -13782,7 +13991,7 @@
         <v>4</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I35" s="5"/>
       <c r="K35" s="5"/>
@@ -13822,7 +14031,7 @@
         <v>32</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I36" s="5"/>
       <c r="K36" s="5"/>
@@ -13862,7 +14071,7 @@
         <v>32</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I37" s="5"/>
       <c r="K37" s="5"/>
@@ -13902,7 +14111,7 @@
         <v>60</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I38" s="5"/>
       <c r="K38" s="5"/>
@@ -13942,7 +14151,7 @@
         <v>69</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I39" s="5"/>
       <c r="K39" s="5"/>
@@ -13979,10 +14188,10 @@
         <v>11</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I40" s="5"/>
       <c r="K40" s="5"/>
@@ -14022,7 +14231,7 @@
         <v>69</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I41" s="5"/>
       <c r="K41" s="5"/>
@@ -14062,7 +14271,7 @@
         <v>32</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I42" s="5"/>
       <c r="K42" s="5"/>
@@ -14102,7 +14311,7 @@
         <v>60</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I43" s="5"/>
       <c r="K43" s="5"/>
@@ -14142,7 +14351,7 @@
         <v>24</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I44" s="5"/>
       <c r="K44" s="5"/>
@@ -14182,7 +14391,7 @@
         <v>4</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I45" s="5"/>
       <c r="K45" s="5"/>
@@ -14222,7 +14431,7 @@
         <v>28</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I46" s="5"/>
       <c r="K46" s="5"/>
@@ -14262,7 +14471,7 @@
         <v>58</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I47" s="5"/>
       <c r="K47" s="5"/>
@@ -14302,7 +14511,7 @@
         <v>32</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I48" s="5"/>
       <c r="K48" s="5"/>
@@ -14342,7 +14551,7 @@
         <v>28</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I49" s="5"/>
       <c r="K49" s="5"/>
@@ -14382,7 +14591,7 @@
         <v>24</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I50" s="5"/>
       <c r="K50" s="5"/>
@@ -14419,10 +14628,10 @@
         <v>59</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I51" s="5"/>
       <c r="K51" s="5"/>
@@ -14459,10 +14668,10 @@
         <v>61</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I52" s="5"/>
       <c r="K52" s="5"/>
@@ -14502,7 +14711,7 @@
         <v>4</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I53" s="5"/>
       <c r="K53" s="5"/>
@@ -14542,7 +14751,7 @@
         <v>32</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I54" s="5"/>
       <c r="K54" s="5"/>
@@ -14582,7 +14791,7 @@
         <v>12</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I55" s="5"/>
       <c r="K55" s="5"/>
@@ -14613,16 +14822,16 @@
     </row>
     <row r="56" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I56" s="5"/>
       <c r="K56" s="5"/>
@@ -14653,16 +14862,16 @@
     </row>
     <row r="57" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I57" s="5"/>
       <c r="K57" s="5"/>
@@ -14693,16 +14902,16 @@
     </row>
     <row r="58" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I58" s="5"/>
       <c r="K58" s="5"/>
@@ -14733,16 +14942,16 @@
     </row>
     <row r="59" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I59" s="5"/>
       <c r="K59" s="5"/>
@@ -14773,16 +14982,16 @@
     </row>
     <row r="60" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I60" s="5"/>
       <c r="K60" s="5"/>
@@ -14813,16 +15022,16 @@
     </row>
     <row r="61" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I61" s="5"/>
       <c r="K61" s="5"/>
@@ -14853,16 +15062,16 @@
     </row>
     <row r="62" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I62" s="5"/>
       <c r="K62" s="5"/>
@@ -14893,16 +15102,16 @@
     </row>
     <row r="63" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I63" s="5"/>
       <c r="K63" s="5"/>
@@ -14933,16 +15142,16 @@
     </row>
     <row r="64" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I64" s="5"/>
       <c r="K64" s="5"/>
@@ -14973,16 +15182,16 @@
     </row>
     <row r="65" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I65" s="5"/>
       <c r="K65" s="5"/>
@@ -15013,19 +15222,19 @@
     </row>
     <row r="66" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I66" s="5"/>
       <c r="K66" s="5"/>
@@ -15056,19 +15265,19 @@
     </row>
     <row r="67" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I67" s="5"/>
       <c r="K67" s="5"/>
@@ -15099,13 +15308,13 @@
     </row>
     <row r="68" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I68" s="5"/>
       <c r="K68" s="5"/>
@@ -15136,19 +15345,19 @@
     </row>
     <row r="69" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I69" s="5"/>
       <c r="K69" s="5"/>
@@ -15179,19 +15388,19 @@
     </row>
     <row r="70" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I70" s="5"/>
       <c r="K70" s="5"/>
@@ -15222,13 +15431,13 @@
     </row>
     <row r="71" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I71" s="5"/>
       <c r="K71" s="5"/>
@@ -15259,19 +15468,19 @@
     </row>
     <row r="72" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I72" s="5"/>
       <c r="K72" s="5"/>
@@ -15302,19 +15511,19 @@
     </row>
     <row r="73" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I73" s="5"/>
       <c r="K73" s="5"/>
@@ -15345,13 +15554,13 @@
     </row>
     <row r="74" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I74" s="5"/>
       <c r="K74" s="5"/>
@@ -18469,8 +18678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D560A749-1550-46C9-B4C1-16EDA40F6677}">
   <dimension ref="A3:AI166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B42" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18485,58 +18694,58 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>188</v>
+      <c r="A3" s="9" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="H4" s="9">
+      <c r="H4">
         <f>LEN(J4)</f>
         <v>82</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="J5" s="5" t="str">
         <f>B5&amp;C5&amp;D5&amp;E5&amp;F5</f>
@@ -18544,23 +18753,23 @@
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>158</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J6" s="5" t="str">
         <f t="shared" ref="J6:J10" si="0">B6&amp;C6&amp;D6&amp;E6&amp;F6</f>
@@ -18568,23 +18777,23 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="J7" s="5" t="str">
         <f t="shared" si="0"/>
@@ -18592,23 +18801,23 @@
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="J8" s="5" t="str">
         <f t="shared" si="0"/>
@@ -18616,44 +18825,44 @@
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
+      <c r="A9" s="9"/>
       <c r="J9" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
+      <c r="A10" s="9"/>
       <c r="J10" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>170</v>
-      </c>
       <c r="H11" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -18683,32 +18892,32 @@
       <c r="AI11" s="5"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>6</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="J12" s="5" t="str">
         <f>B12&amp;C12&amp;D12&amp;E12&amp;F12&amp;G12&amp;H12&amp;I12</f>
@@ -18741,32 +18950,32 @@
       <c r="AI12" s="5"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>7</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="I13" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="J13" s="5" t="str">
         <f>B13&amp;C13&amp;D13&amp;E13&amp;F13&amp;G13&amp;H13&amp;I13</f>
@@ -18799,7 +19008,7 @@
       <c r="AI13" s="5"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
+      <c r="A14" s="9"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -18809,54 +19018,54 @@
       <c r="H14"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="H15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>8</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
-        <v>8</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>180</v>
-      </c>
       <c r="D16" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5" t="str">
@@ -18890,29 +19099,29 @@
       <c r="AI16" s="5"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <v>9</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5" t="str">
@@ -18946,7 +19155,7 @@
       <c r="AI17" s="5"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
+      <c r="A18" s="9"/>
       <c r="I18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
@@ -18975,27 +19184,27 @@
       <c r="AI18" s="5"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>148</v>
-      </c>
       <c r="H19" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I19" s="5"/>
       <c r="K19" s="5"/>
@@ -19025,29 +19234,29 @@
       <c r="AI19" s="5"/>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+      <c r="A20" s="9">
         <v>10</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5" t="str">
@@ -19081,29 +19290,29 @@
       <c r="AI20" s="5"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
+      <c r="A21" s="9">
         <v>11</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5" t="str">
@@ -19137,7 +19346,7 @@
       <c r="AI21" s="5"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
+      <c r="A22" s="9"/>
       <c r="I22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -19166,7 +19375,7 @@
       <c r="AI22" s="5"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
+      <c r="A23" s="9">
         <v>18</v>
       </c>
       <c r="I23" s="5"/>
@@ -19344,13 +19553,13 @@
         <v>1</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>190</v>
-      </c>
       <c r="E29" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I29" s="5"/>
       <c r="K29" s="5"/>
@@ -19387,7 +19596,7 @@
         <v>30</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I30" s="5"/>
       <c r="K30" s="5"/>
@@ -19424,7 +19633,7 @@
         <v>8</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I31" s="5"/>
       <c r="K31" s="5"/>
@@ -19461,7 +19670,7 @@
         <v>10</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I32" s="5"/>
       <c r="K32" s="5"/>
@@ -19498,7 +19707,7 @@
         <v>10</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I33" s="5"/>
       <c r="K33" s="5"/>
@@ -19535,7 +19744,7 @@
         <v>11</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I34" s="5"/>
       <c r="K34" s="5"/>
@@ -19572,7 +19781,7 @@
         <v>11</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I35" s="5"/>
       <c r="K35" s="5"/>
@@ -19609,7 +19818,7 @@
         <v>11</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I36" s="5"/>
       <c r="K36" s="5"/>
@@ -19646,7 +19855,7 @@
         <v>11</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I37" s="5"/>
       <c r="K37" s="5"/>
@@ -19683,7 +19892,7 @@
         <v>21</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I38" s="5"/>
       <c r="K38" s="5"/>
@@ -19720,7 +19929,7 @@
         <v>21</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I39" s="5"/>
       <c r="K39" s="5"/>
@@ -19757,7 +19966,7 @@
         <v>21</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I40" s="5"/>
       <c r="K40" s="5"/>
@@ -19794,7 +20003,7 @@
         <v>21</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I41" s="5"/>
       <c r="K41" s="5"/>
@@ -19831,7 +20040,7 @@
         <v>23</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I42" s="5"/>
       <c r="K42" s="5"/>
@@ -19868,7 +20077,7 @@
         <v>23</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I43" s="5"/>
       <c r="K43" s="5"/>
@@ -19905,7 +20114,7 @@
         <v>23</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I44" s="5"/>
       <c r="K44" s="5"/>
@@ -19942,7 +20151,7 @@
         <v>25</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I45" s="5"/>
       <c r="K45" s="5"/>
@@ -19979,7 +20188,7 @@
         <v>25</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I46" s="5"/>
       <c r="K46" s="5"/>
@@ -20016,7 +20225,7 @@
         <v>26</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I47" s="5"/>
       <c r="K47" s="5"/>
@@ -20053,7 +20262,7 @@
         <v>59</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I48" s="5"/>
       <c r="K48" s="5"/>
@@ -20090,7 +20299,7 @@
         <v>61</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I49" s="5"/>
       <c r="K49" s="5"/>
@@ -20127,7 +20336,7 @@
         <v>67</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I50" s="5"/>
       <c r="K50" s="5"/>
@@ -20164,7 +20373,7 @@
         <v>67</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I51" s="5"/>
       <c r="K51" s="5"/>
@@ -20201,7 +20410,7 @@
         <v>67</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I52" s="5"/>
       <c r="K52" s="5"/>
@@ -20232,13 +20441,13 @@
     </row>
     <row r="53" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="D53" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I53" s="5"/>
       <c r="K53" s="5"/>
@@ -20269,13 +20478,13 @@
     </row>
     <row r="54" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="D54" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I54" s="5"/>
       <c r="K54" s="5"/>
@@ -20306,13 +20515,13 @@
     </row>
     <row r="55" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="D55" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I55" s="5"/>
       <c r="K55" s="5"/>
@@ -20343,13 +20552,13 @@
     </row>
     <row r="56" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I56" s="5"/>
       <c r="K56" s="5"/>
@@ -20380,13 +20589,13 @@
     </row>
     <row r="57" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="D57" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I57" s="5"/>
       <c r="K57" s="5"/>
@@ -20417,13 +20626,13 @@
     </row>
     <row r="58" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I58" s="5"/>
       <c r="K58" s="5"/>
@@ -20454,13 +20663,13 @@
     </row>
     <row r="59" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="D59" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I59" s="5"/>
       <c r="K59" s="5"/>
@@ -20491,13 +20700,13 @@
     </row>
     <row r="60" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="D60" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I60" s="5"/>
       <c r="K60" s="5"/>
@@ -20528,13 +20737,13 @@
     </row>
     <row r="61" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="D61" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I61" s="5"/>
       <c r="K61" s="5"/>
@@ -20565,13 +20774,13 @@
     </row>
     <row r="62" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="D62" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I62" s="5"/>
       <c r="K62" s="5"/>
@@ -20602,13 +20811,13 @@
     </row>
     <row r="63" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="D63" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I63" s="5"/>
       <c r="K63" s="5"/>
@@ -20639,13 +20848,13 @@
     </row>
     <row r="64" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="D64" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I64" s="5"/>
       <c r="K64" s="5"/>
@@ -20676,19 +20885,19 @@
     </row>
     <row r="65" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I65" s="5"/>
       <c r="K65" s="5"/>
@@ -20719,19 +20928,19 @@
     </row>
     <row r="66" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I66" s="5"/>
       <c r="K66" s="5"/>
@@ -20762,13 +20971,13 @@
     </row>
     <row r="67" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I67" s="5"/>
       <c r="K67" s="5"/>
@@ -20799,13 +21008,13 @@
     </row>
     <row r="68" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I68" s="5"/>
       <c r="K68" s="5"/>
@@ -20836,19 +21045,19 @@
     </row>
     <row r="69" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I69" s="5"/>
       <c r="K69" s="5"/>
@@ -20879,19 +21088,19 @@
     </row>
     <row r="70" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I70" s="5"/>
       <c r="K70" s="5"/>
@@ -20922,13 +21131,13 @@
     </row>
     <row r="71" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I71" s="5"/>
       <c r="K71" s="5"/>
@@ -20959,13 +21168,13 @@
     </row>
     <row r="72" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I72" s="5"/>
       <c r="K72" s="5"/>
@@ -20996,19 +21205,19 @@
     </row>
     <row r="73" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I73" s="5"/>
       <c r="K73" s="5"/>
@@ -21039,19 +21248,19 @@
     </row>
     <row r="74" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I74" s="5"/>
       <c r="K74" s="5"/>
@@ -23659,4 +23868,2993 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A48BC7-F040-4167-BCEF-355AF8194519}">
+  <dimension ref="A3:AF15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.21875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="16.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="26" width="20.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF4">
+        <f>LEN(AE4)</f>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA5" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE5" t="str">
+        <f>B5&amp;C5&amp;D5&amp;E5&amp;F5&amp;G5&amp;H5&amp;I5&amp;J5&amp;K5&amp;L5&amp;M5&amp;N5&amp;O5&amp;P5&amp;Q5&amp;R5&amp;S5&amp;T5&amp;U5&amp;V5&amp;W5&amp;X5&amp;Y5&amp;Z5&amp;AA5&amp;AB5&amp;AC5</f>
+        <v>0028391781100000000000000000000000000000141012025111200000000000100020251212000000000000000000000000000000000000000000000000000000001000000000000001000000000000001000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000022</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" ref="AF5:AF15" si="0">LEN(AE5)</f>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA6" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE6" t="str">
+        <f t="shared" ref="AE6:AE14" si="1">B6&amp;C6&amp;D6&amp;E6&amp;F6&amp;G6&amp;H6&amp;I6&amp;J6&amp;K6&amp;L6&amp;M6&amp;N6&amp;O6&amp;P6&amp;Q6&amp;R6&amp;S6&amp;T6&amp;U6&amp;V6&amp;W6&amp;X6&amp;Y6&amp;Z6&amp;AA6&amp;AB6&amp;AC6</f>
+        <v>0060761906100000000000000000000000000000241012025111200000000000100020251212000000000000000000000000000000000000000000000000000000000000000000000001000000000000001000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000022</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA7" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE7" t="str">
+        <f t="shared" si="1"/>
+        <v>003329607k100000000000000000000000000000341012025111200000000000100020251212000000000000000000000000000000000000000000000000000000000000000000000001000000000000001000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000022</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA8" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE8" t="str">
+        <f t="shared" si="1"/>
+        <v>0071579719100000000000000000000000000000441012025111200000000000100020251212000000000000000000000000000000000000000000000000000000000000000000000001000000000000001000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000022</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA9" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE9" t="str">
+        <f t="shared" si="1"/>
+        <v>0047440149100000000000000000000000000000541012025111200000000000100020251212000000000000000000000000000000000000000000000000000000000000000000000001000000000000001000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000022</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA10" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE10" t="str">
+        <f t="shared" si="1"/>
+        <v>0029788065100000000000000000000000000000641012025111200000000000100020251212000000000000000000000000000000000000000000000000000000000000000000000001000000000000001000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000022</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA11" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE11" t="str">
+        <f t="shared" si="1"/>
+        <v>0033887965100000000000000000000000000000741012025111200000000000100020251212000000000000000000000000000000000000000000000000000000000000000000000001000000000000001000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000022</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA12" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE12" t="str">
+        <f t="shared" si="1"/>
+        <v>0049231733100000000000000000000000000000841012025111200000000000100020251212000000000000000000000000000000000000000000000000000000000000000000000001000000000000001000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000022</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA13" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE13" t="str">
+        <f t="shared" si="1"/>
+        <v>0027258182100000000000000000000000000000941012025111200000000000100020251212000000000000000000000000000000000000000000000000000000000000000000000001000000000000001000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000022</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA14" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE14" t="str">
+        <f t="shared" si="1"/>
+        <v>0071085198100000000000000000000000000001041012025111200000000000100020251212000000000000000000000000000000000000000000000000000000000000000000000001000000000000001000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000022</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA15" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE15" t="str">
+        <f>B15&amp;C15&amp;D15&amp;E15&amp;F15&amp;G15&amp;H15&amp;I15&amp;J15&amp;K15&amp;L15&amp;M15&amp;N15&amp;O15&amp;P15&amp;Q15&amp;R15&amp;S15&amp;T15&amp;U15&amp;V15&amp;W15&amp;X15&amp;Y15&amp;Z15&amp;AA15&amp;AB15&amp;AC15</f>
+        <v>0127558590100000000000000000000000000000142012025111200000000000000020251212000000000000000000000000000000000000000000000000000000000000000000000001000000000000001000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000022</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="AF1:AF1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="notEqual">
+      <formula>322</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52049CF-118F-4A61-8377-C0F111F3D277}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A2:AF44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="151.77734375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="16.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="26" width="20.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="I2" s="15">
+        <f>LEN(I6)</f>
+        <v>15</v>
+      </c>
+      <c r="N2" s="15">
+        <f>LEN(N6)</f>
+        <v>15</v>
+      </c>
+      <c r="R2" s="15">
+        <f>LEN(R6)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>254</v>
+      </c>
+      <c r="AF4">
+        <f>LEN(AE4)</f>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA5" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE5" t="str">
+        <f>B5&amp;C5&amp;D5&amp;E5&amp;F5&amp;G5&amp;H5&amp;I5&amp;J5&amp;K5&amp;L5&amp;M5&amp;N5&amp;O5&amp;P5&amp;Q5&amp;R5&amp;S5&amp;T5&amp;U5&amp;V5&amp;W5&amp;X5&amp;Y5&amp;Z5&amp;AA5&amp;AB5&amp;AC5</f>
+        <v>0028391782100000000000000000000000000000141011211202500000000000100020251212000000000000000000000000000000000000000000000000000000001000000000000001000000000000001000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000022</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" ref="AF5:AF16" si="0">LEN(AE5)</f>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="V6" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="X6" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y6" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z6" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="AA6" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE6" t="str">
+        <f t="shared" ref="AE6:AE14" si="1">B6&amp;C6&amp;D6&amp;E6&amp;F6&amp;G6&amp;H6&amp;I6&amp;J6&amp;K6&amp;L6&amp;M6&amp;N6&amp;O6&amp;P6&amp;Q6&amp;R6&amp;S6&amp;T6&amp;U6&amp;V6&amp;W6&amp;X6&amp;Y6&amp;Z6&amp;AA6&amp;AB6&amp;AC6</f>
+        <v>006076190630000000000000000000000000000014101202511121000           202512120              0              0              0              1000           1000           1000           0              0              0              0              0              0              0              0              0              000022</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA7" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB7" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="AC7" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="AE7" t="str">
+        <f t="shared" si="1"/>
+        <v>003329607k100000000000000000000000000000351012025111200000000000010020251212000000000000000000000000000000000000000000000000000000000000000000000001000000000000001000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA8" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE8" t="str">
+        <f t="shared" si="1"/>
+        <v>0071579719100000000000000000000000000000440012025111200000000000100020251212000000000000000000000000000000000000000000000000000000000000000000000001000000000000001000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000022</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA9" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE9" t="str">
+        <f t="shared" si="1"/>
+        <v>0047440149100000000000000000000000000000541992025111200000000000100020251212000000000000000000000000000000000000000000000000000000000000000000000001000000000000001000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000022</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA10" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE10" t="str">
+        <f t="shared" si="1"/>
+        <v>0029788065100000000000000000000000000000641012025111200000000000100020251212000000000000000000000000000000000000000000000000000000000000000000000001000000000000001000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000022</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA11" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE11" t="str">
+        <f t="shared" si="1"/>
+        <v>0033887965100000000000000000000000000000741012025111200000000000100020251212000000000000000000000000000000000000000000000000000000000000000000000001000000000000001000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000021</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA12" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE12" t="str">
+        <f t="shared" si="1"/>
+        <v>0049231733100000000000000000000000000000841012025111200000000000100020251212000000000000000000000000000000000000000000000000000000000000000000000001000000000000001000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000022</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA13" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE13" t="str">
+        <f t="shared" si="1"/>
+        <v>0027258182100000000000000000000000000000941012025111200000000000100020251212000000000000000000000000000000000000000000000000000000000000000000000001000000000000001000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000022</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA14" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE14" t="str">
+        <f t="shared" si="1"/>
+        <v>0071085198100000000000000000000000000001041012025111200000000000100020251212000000000000000000000000000000000000000000000000000000000000000000000001000000000000001000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000022</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA15" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE15" t="str">
+        <f>B15&amp;C15&amp;D15&amp;E15&amp;F15&amp;G15&amp;H15&amp;I15&amp;J15&amp;K15&amp;L15&amp;M15&amp;N15&amp;O15&amp;P15&amp;Q15&amp;R15&amp;S15&amp;T15&amp;U15&amp;V15&amp;W15&amp;X15&amp;Y15&amp;Z15&amp;AA15&amp;AB15&amp;AC15</f>
+        <v>0127558591100000000000000000000000000000142012025111200000000000000020251212000000000000000000000000000000000000000000000000000000000000000000000001000000000000001000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000121</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y16" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z16" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA16" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE16" t="str">
+        <f>B16&amp;C16&amp;D16&amp;E16&amp;F16&amp;G16&amp;H16&amp;I16&amp;J16&amp;K16&amp;L16&amp;M16&amp;N16&amp;O16&amp;P16&amp;Q16&amp;R16&amp;S16&amp;T16&amp;U16&amp;V16&amp;W16&amp;X16&amp;Y16&amp;Z16&amp;AA16&amp;AB16&amp;AC16</f>
+        <v>0127558591100000000000000000000000000000142012025111200000000000000020251212000000000000000000000000000000000000000000000000000000000000000000000001000000000000001000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000121</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A19:E44" xr:uid="{E52049CF-118F-4A61-8377-C0F111F3D277}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="13"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="AF1:AF1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+      <formula>322</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Analisis/validaciones/validacion_reportes.xlsx
+++ b/Analisis/validaciones/validacion_reportes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/validaciones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1266" documentId="13_ncr:1_{C3BC911C-CB85-46EA-967D-51D15C7D4CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62C69727-3D56-49EB-AC59-3E8FC1D69109}"/>
+  <xr:revisionPtr revIDLastSave="1296" documentId="13_ncr:1_{C3BC911C-CB85-46EA-967D-51D15C7D4CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{032F6DE7-3E49-47EF-9745-DBA9C6972A88}"/>
   <bookViews>
-    <workbookView xWindow="-15210" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15210" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="diccionario_validador" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2199" uniqueCount="280">
   <si>
     <t>num_validador</t>
   </si>
@@ -882,6 +882,57 @@
   </si>
   <si>
     <t>Si se informa tipo deudor 1, el sujeto esta 100% moroso y el monto actual = suma(tramos de mora de 1 a 9) entonces carga financiera tiene que estar en cero.</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Para el registro 2, Rut del deudor + codigo de la operacion + tipo de obligacion debe ser unico</t>
+  </si>
+  <si>
+    <t>Para el registro 3, Rut del deudor + codigo de la operacion + tipo de obligacion debe ser unico</t>
+  </si>
+  <si>
+    <t>No deben repetirse las operaciones en el registro 2</t>
+  </si>
+  <si>
+    <t>No deben repetirse las operaciones en el registro 3</t>
+  </si>
+  <si>
+    <t>No deben repetirse las operaciones en el registro 4</t>
+  </si>
+  <si>
+    <t>Para el registro 4, Rut del deudor + codigo de la operacion + tipo de obligacion debe ser unico</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Suma absoluta para montos de flujos 08 y 10 en el registro 1 es distinto a la suma de montos informado en el registro 2</t>
+  </si>
+  <si>
+    <t>Tiene que ver con la consistencia entre el registro 1 y registro 02 para los flujos 08 y 10</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Suma abosulta para montos de flujos 04 y 06 en el registro 1 es distinto a la suma de montos informado en el registro 3</t>
+  </si>
+  <si>
+    <t>Tiene que ver con la consistencia entre el registro 1 y registro 03 para los flujos 04 y 06</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Suma absoluta para montos de flujos 05 y 07 en el registro 1 es distinto a la suma de montos informado en el registro 4</t>
+  </si>
+  <si>
+    <t>Tiene que ver con la consistencia entre el registro 1 y registro 04 para los flujos 05 y 07</t>
   </si>
 </sst>
 </file>
@@ -980,7 +1031,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -998,9 +1049,7 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1339,10 +1388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2421,6 +2470,162 @@
       </c>
       <c r="H41" s="3" t="s">
         <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -24086,7 +24291,7 @@
       <c r="Z5" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="AA5" s="13" t="s">
+      <c r="AA5" s="12" t="s">
         <v>236</v>
       </c>
       <c r="AB5" s="5" t="s">
@@ -24183,7 +24388,7 @@
       <c r="Z6" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="AA6" s="13" t="s">
+      <c r="AA6" s="12" t="s">
         <v>236</v>
       </c>
       <c r="AB6" s="5" t="s">
@@ -24280,7 +24485,7 @@
       <c r="Z7" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="AA7" s="13" t="s">
+      <c r="AA7" s="12" t="s">
         <v>236</v>
       </c>
       <c r="AB7" s="5" t="s">
@@ -24377,7 +24582,7 @@
       <c r="Z8" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="AA8" s="13" t="s">
+      <c r="AA8" s="12" t="s">
         <v>236</v>
       </c>
       <c r="AB8" s="5" t="s">
@@ -24474,7 +24679,7 @@
       <c r="Z9" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="AA9" s="13" t="s">
+      <c r="AA9" s="12" t="s">
         <v>236</v>
       </c>
       <c r="AB9" s="5" t="s">
@@ -24571,7 +24776,7 @@
       <c r="Z10" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="AA10" s="13" t="s">
+      <c r="AA10" s="12" t="s">
         <v>236</v>
       </c>
       <c r="AB10" s="5" t="s">
@@ -24668,7 +24873,7 @@
       <c r="Z11" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="AA11" s="13" t="s">
+      <c r="AA11" s="12" t="s">
         <v>236</v>
       </c>
       <c r="AB11" s="5" t="s">
@@ -24765,7 +24970,7 @@
       <c r="Z12" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="AA12" s="13" t="s">
+      <c r="AA12" s="12" t="s">
         <v>236</v>
       </c>
       <c r="AB12" s="5" t="s">
@@ -24862,7 +25067,7 @@
       <c r="Z13" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="AA13" s="13" t="s">
+      <c r="AA13" s="12" t="s">
         <v>236</v>
       </c>
       <c r="AB13" s="5" t="s">
@@ -24959,7 +25164,7 @@
       <c r="Z14" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="AA14" s="13" t="s">
+      <c r="AA14" s="12" t="s">
         <v>236</v>
       </c>
       <c r="AB14" s="5" t="s">
@@ -25056,7 +25261,7 @@
       <c r="Z15" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="AA15" s="13" t="s">
+      <c r="AA15" s="12" t="s">
         <v>236</v>
       </c>
       <c r="AB15" s="5" t="s">
@@ -25089,8 +25294,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:AF44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25119,15 +25324,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="I2" s="15">
+      <c r="I2">
         <f>LEN(I6)</f>
         <v>15</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2">
         <f>LEN(N6)</f>
         <v>15</v>
       </c>
-      <c r="R2" s="15">
+      <c r="R2">
         <f>LEN(R6)</f>
         <v>15</v>
       </c>
@@ -25240,7 +25445,7 @@
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>255</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -25315,7 +25520,7 @@
       <c r="Z5" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="AA5" s="13" t="s">
+      <c r="AA5" s="12" t="s">
         <v>236</v>
       </c>
       <c r="AB5" s="5" t="s">
@@ -25343,7 +25548,7 @@
       <c r="C6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="14" t="s">
         <v>170</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -25412,7 +25617,7 @@
       <c r="Z6" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="AA6" s="13" t="s">
+      <c r="AA6" s="12" t="s">
         <v>236</v>
       </c>
       <c r="AB6" s="5" t="s">
@@ -25509,7 +25714,7 @@
       <c r="Z7" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="AA7" s="16" t="s">
+      <c r="AA7" s="14" t="s">
         <v>235</v>
       </c>
       <c r="AB7" s="10" t="s">
@@ -25606,7 +25811,7 @@
       <c r="Z8" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="AA8" s="13" t="s">
+      <c r="AA8" s="12" t="s">
         <v>236</v>
       </c>
       <c r="AB8" s="5" t="s">
@@ -25703,7 +25908,7 @@
       <c r="Z9" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="AA9" s="13" t="s">
+      <c r="AA9" s="12" t="s">
         <v>236</v>
       </c>
       <c r="AB9" s="5" t="s">
@@ -25800,7 +26005,7 @@
       <c r="Z10" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="AA10" s="16" t="s">
+      <c r="AA10" s="14" t="s">
         <v>236</v>
       </c>
       <c r="AB10" s="5" t="s">
@@ -25897,7 +26102,7 @@
       <c r="Z11" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="AA11" s="16" t="s">
+      <c r="AA11" s="14" t="s">
         <v>236</v>
       </c>
       <c r="AB11" s="5" t="s">
@@ -25994,7 +26199,7 @@
       <c r="Z12" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="AA12" s="13" t="s">
+      <c r="AA12" s="12" t="s">
         <v>236</v>
       </c>
       <c r="AB12" s="5" t="s">
@@ -26091,7 +26296,7 @@
       <c r="Z13" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="AA13" s="13" t="s">
+      <c r="AA13" s="12" t="s">
         <v>236</v>
       </c>
       <c r="AB13" s="5" t="s">
@@ -26188,7 +26393,7 @@
       <c r="Z14" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="AA14" s="13" t="s">
+      <c r="AA14" s="12" t="s">
         <v>236</v>
       </c>
       <c r="AB14" s="5" t="s">
@@ -26210,7 +26415,7 @@
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>256</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -26285,7 +26490,7 @@
       <c r="Z15" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="AA15" s="13" t="s">
+      <c r="AA15" s="12" t="s">
         <v>235</v>
       </c>
       <c r="AB15" s="5" t="s">
@@ -26307,7 +26512,7 @@
       <c r="A16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>256</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -26382,7 +26587,7 @@
       <c r="Z16" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="AA16" s="13" t="s">
+      <c r="AA16" s="12" t="s">
         <v>235</v>
       </c>
       <c r="AB16" s="5" t="s">

--- a/Analisis/validaciones/validacion_reportes.xlsx
+++ b/Analisis/validaciones/validacion_reportes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/validaciones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1296" documentId="13_ncr:1_{C3BC911C-CB85-46EA-967D-51D15C7D4CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{032F6DE7-3E49-47EF-9745-DBA9C6972A88}"/>
+  <xr:revisionPtr revIDLastSave="1308" documentId="13_ncr:1_{C3BC911C-CB85-46EA-967D-51D15C7D4CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1E11641-6365-4049-9DB9-31B3C6986899}"/>
   <bookViews>
     <workbookView xWindow="-15210" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <sheet name="QA RDC01 Salida mala" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">diccionario_validador!$A$1:$H$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">diccionario_validador!$A$1:$I$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'QA RDC01 Salida mala'!$A$19:$E$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'QA RDC20 Salida mala'!$A$32:$E$72</definedName>
   </definedNames>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2199" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="281">
   <si>
     <t>num_validador</t>
   </si>
@@ -933,6 +933,9 @@
   </si>
   <si>
     <t>Tiene que ver con la consistencia entre el registro 1 y registro 04 para los flujos 05 y 07</t>
+  </si>
+  <si>
+    <t>Usado en RDC22</t>
   </si>
 </sst>
 </file>
@@ -1119,10 +1122,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1388,11 +1387,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1401,12 +1398,12 @@
     <col min="3" max="3" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="151.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="3"/>
+    <col min="6" max="8" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="151.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1428,11 +1425,14 @@
       <c r="G1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1454,11 +1454,14 @@
       <c r="G2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1480,11 +1483,14 @@
       <c r="G3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1506,11 +1512,14 @@
       <c r="G4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1532,11 +1541,14 @@
       <c r="G5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1558,11 +1570,14 @@
       <c r="G6" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1584,11 +1599,14 @@
       <c r="G7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -1610,11 +1628,14 @@
       <c r="G8" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1636,11 +1657,14 @@
       <c r="G9" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1662,11 +1686,14 @@
       <c r="G10" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -1688,11 +1715,14 @@
       <c r="G11" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1714,11 +1744,14 @@
       <c r="G12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -1740,11 +1773,14 @@
       <c r="G13" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
@@ -1766,11 +1802,14 @@
       <c r="G14" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>58</v>
       </c>
@@ -1792,11 +1831,14 @@
       <c r="G15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>60</v>
       </c>
@@ -1818,11 +1860,14 @@
       <c r="G16" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>65</v>
       </c>
@@ -1844,11 +1889,14 @@
       <c r="G17" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>69</v>
       </c>
@@ -1870,11 +1918,14 @@
       <c r="G18" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>70</v>
       </c>
@@ -1896,11 +1947,14 @@
       <c r="G19" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>72</v>
       </c>
@@ -1922,11 +1976,14 @@
       <c r="G20" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>74</v>
       </c>
@@ -1948,11 +2005,14 @@
       <c r="G21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>76</v>
       </c>
@@ -1974,11 +2034,14 @@
       <c r="G22" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>78</v>
       </c>
@@ -2000,11 +2063,14 @@
       <c r="G23" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>80</v>
       </c>
@@ -2026,11 +2092,14 @@
       <c r="G24" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>82</v>
       </c>
@@ -2052,11 +2121,14 @@
       <c r="G25" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>97</v>
       </c>
@@ -2078,11 +2150,14 @@
       <c r="G26" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>101</v>
       </c>
@@ -2104,11 +2179,14 @@
       <c r="G27" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>104</v>
       </c>
@@ -2130,11 +2208,14 @@
       <c r="G28" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>108</v>
       </c>
@@ -2156,11 +2237,14 @@
       <c r="G29" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>110</v>
       </c>
@@ -2182,11 +2266,14 @@
       <c r="G30" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>114</v>
       </c>
@@ -2208,11 +2295,14 @@
       <c r="G31" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>116</v>
       </c>
@@ -2234,11 +2324,14 @@
       <c r="G32" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>119</v>
       </c>
@@ -2260,11 +2353,14 @@
       <c r="G33" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I33" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>122</v>
       </c>
@@ -2286,11 +2382,14 @@
       <c r="G34" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I34" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>125</v>
       </c>
@@ -2312,11 +2411,14 @@
       <c r="G35" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>128</v>
       </c>
@@ -2338,11 +2440,14 @@
       <c r="G36" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I36" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>131</v>
       </c>
@@ -2364,11 +2469,14 @@
       <c r="G37" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>134</v>
       </c>
@@ -2390,11 +2498,14 @@
       <c r="G38" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>136</v>
       </c>
@@ -2416,11 +2527,14 @@
       <c r="G39" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I39" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>139</v>
       </c>
@@ -2442,11 +2556,14 @@
       <c r="G40" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I40" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>144</v>
       </c>
@@ -2468,11 +2585,14 @@
       <c r="G41" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I41" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>263</v>
       </c>
@@ -2494,11 +2614,14 @@
       <c r="G42" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I42" s="3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>165</v>
       </c>
@@ -2520,11 +2643,14 @@
       <c r="G43" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I43" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>264</v>
       </c>
@@ -2546,11 +2672,14 @@
       <c r="G44" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I44" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>271</v>
       </c>
@@ -2572,11 +2701,14 @@
       <c r="G45" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>274</v>
       </c>
@@ -2598,11 +2730,14 @@
       <c r="G46" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H46" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I46" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>277</v>
       </c>
@@ -2624,12 +2759,15 @@
       <c r="G47" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I47" s="3" t="s">
         <v>279</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:G1048576">
+  <conditionalFormatting sqref="F1:H1048576">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
